--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Lifr</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H2">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I2">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J2">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N2">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O2">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P2">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q2">
-        <v>6.048470164364445</v>
+        <v>65.80943038327777</v>
       </c>
       <c r="R2">
-        <v>54.43623147928</v>
+        <v>592.2848734495</v>
       </c>
       <c r="S2">
-        <v>0.01796725709222665</v>
+        <v>0.1442517771890088</v>
       </c>
       <c r="T2">
-        <v>0.01796725709222665</v>
+        <v>0.1442517771890088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H3">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I3">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J3">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
         <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P3">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q3">
-        <v>11.11762563115478</v>
+        <v>86.49095150678887</v>
       </c>
       <c r="R3">
-        <v>100.058630680393</v>
+        <v>778.4185635610999</v>
       </c>
       <c r="S3">
-        <v>0.03302541511190144</v>
+        <v>0.1895848876514961</v>
       </c>
       <c r="T3">
-        <v>0.03302541511190144</v>
+        <v>0.1895848876514962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H4">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I4">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J4">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N4">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q4">
-        <v>2.656397317870222</v>
+        <v>31.31746046061111</v>
       </c>
       <c r="R4">
-        <v>23.907575860832</v>
+        <v>281.8571441455</v>
       </c>
       <c r="S4">
-        <v>0.007890949653761041</v>
+        <v>0.06864668638185922</v>
       </c>
       <c r="T4">
-        <v>0.007890949653761043</v>
+        <v>0.06864668638185921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H5">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I5">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J5">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N5">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O5">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P5">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q5">
-        <v>2.316192509862223</v>
+        <v>18.20668378503333</v>
       </c>
       <c r="R5">
-        <v>20.84573258876</v>
+        <v>163.8601540653</v>
       </c>
       <c r="S5">
-        <v>0.00688035572118212</v>
+        <v>0.03990836081414745</v>
       </c>
       <c r="T5">
-        <v>0.00688035572118212</v>
+        <v>0.03990836081414746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H6">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I6">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J6">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N6">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O6">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P6">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q6">
-        <v>47.05482600622222</v>
+        <v>82.9488501015211</v>
       </c>
       <c r="R6">
-        <v>423.493434056</v>
+        <v>746.5396509136899</v>
       </c>
       <c r="S6">
-        <v>0.1397785114763188</v>
+        <v>0.1818207356186076</v>
       </c>
       <c r="T6">
-        <v>0.1397785114763188</v>
+        <v>0.1818207356186076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H7">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I7">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J7">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
         <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P7">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q7">
-        <v>86.4909515067889</v>
+        <v>109.0166702536535</v>
       </c>
       <c r="R7">
-        <v>778.4185635611</v>
+        <v>981.1500322828819</v>
       </c>
       <c r="S7">
-        <v>0.2569253248580874</v>
+        <v>0.2389604094083395</v>
       </c>
       <c r="T7">
-        <v>0.2569253248580874</v>
+        <v>0.2389604094083395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H8">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I8">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J8">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N8">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q8">
-        <v>20.66577336071111</v>
+        <v>39.47378541613445</v>
       </c>
       <c r="R8">
-        <v>185.9919602464</v>
+        <v>355.26406874521</v>
       </c>
       <c r="S8">
-        <v>0.06138862437797958</v>
+        <v>0.08652504155547076</v>
       </c>
       <c r="T8">
-        <v>0.06138862437797959</v>
+        <v>0.08652504155547076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H9">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I9">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J9">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N9">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O9">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P9">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q9">
-        <v>18.01910773911111</v>
+        <v>22.94843573838734</v>
       </c>
       <c r="R9">
-        <v>162.171969652</v>
+        <v>206.535921645486</v>
       </c>
       <c r="S9">
-        <v>0.05352658317281447</v>
+        <v>0.05030210138107043</v>
       </c>
       <c r="T9">
-        <v>0.05352658317281447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.708169</v>
-      </c>
-      <c r="I10">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J10">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>31.44605333333334</v>
-      </c>
-      <c r="N10">
-        <v>94.33816</v>
-      </c>
-      <c r="O10">
-        <v>0.273208187120734</v>
-      </c>
-      <c r="P10">
-        <v>0.2732081871207339</v>
-      </c>
-      <c r="Q10">
-        <v>38.86909338100444</v>
-      </c>
-      <c r="R10">
-        <v>349.82184042904</v>
-      </c>
-      <c r="S10">
-        <v>0.1154624185521885</v>
-      </c>
-      <c r="T10">
-        <v>0.1154624185521885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.708169</v>
-      </c>
-      <c r="I11">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J11">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>57.80064033333334</v>
-      </c>
-      <c r="N11">
-        <v>173.401921</v>
-      </c>
-      <c r="O11">
-        <v>0.5021809252974908</v>
-      </c>
-      <c r="P11">
-        <v>0.5021809252974907</v>
-      </c>
-      <c r="Q11">
-        <v>71.44484755473879</v>
-      </c>
-      <c r="R11">
-        <v>643.0036279926491</v>
-      </c>
-      <c r="S11">
-        <v>0.212230185327502</v>
-      </c>
-      <c r="T11">
-        <v>0.212230185327502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.708169</v>
-      </c>
-      <c r="I12">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J12">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.81063466666667</v>
-      </c>
-      <c r="N12">
-        <v>41.431904</v>
-      </c>
-      <c r="O12">
-        <v>0.1199889353449366</v>
-      </c>
-      <c r="P12">
-        <v>0.1199889353449366</v>
-      </c>
-      <c r="Q12">
-        <v>17.07072244708622</v>
-      </c>
-      <c r="R12">
-        <v>153.636502023776</v>
-      </c>
-      <c r="S12">
-        <v>0.050709361313196</v>
-      </c>
-      <c r="T12">
-        <v>0.05070936131319601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.708169</v>
-      </c>
-      <c r="I13">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J13">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.04190666666667</v>
-      </c>
-      <c r="N13">
-        <v>36.12572</v>
-      </c>
-      <c r="O13">
-        <v>0.1046219522368387</v>
-      </c>
-      <c r="P13">
-        <v>0.1046219522368386</v>
-      </c>
-      <c r="Q13">
-        <v>14.88447500074222</v>
-      </c>
-      <c r="R13">
-        <v>133.96027500668</v>
-      </c>
-      <c r="S13">
-        <v>0.04421501334284205</v>
-      </c>
-      <c r="T13">
-        <v>0.04421501334284205</v>
+        <v>0.05030210138107045</v>
       </c>
     </row>
   </sheetData>
